--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4417.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4417.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shai Diego Hope</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3960</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3961</t>
+          <t>3961</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3963</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3964</t>
+          <t>3964</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -971,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1023,7 +1088,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1075,7 +1140,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1115,7 +1180,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -1123,7 +1187,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4046</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1163,7 +1227,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>23/06/2017</t>
@@ -1171,7 +1234,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4051</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1223,7 +1286,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1275,7 +1338,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1327,7 +1390,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1379,7 +1442,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1431,7 +1494,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1471,7 +1534,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -1479,7 +1541,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4070</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1531,7 +1593,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1583,7 +1645,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1635,7 +1697,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1687,7 +1749,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1739,7 +1801,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1791,7 +1853,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1843,7 +1905,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4144</t>
+          <t>4144</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1895,7 +1957,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4148</t>
+          <t>4148</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1947,7 +2009,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1999,7 +2061,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2051,7 +2113,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4159</t>
+          <t>4159</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2103,7 +2165,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2155,7 +2217,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2207,7 +2269,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2259,7 +2321,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2311,7 +2373,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2363,7 +2425,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2415,7 +2477,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2467,7 +2529,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2519,7 +2581,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2571,7 +2633,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2623,7 +2685,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2675,7 +2737,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2727,7 +2789,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2779,7 +2841,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2831,7 +2893,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2871,7 +2933,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -2879,7 +2940,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2931,7 +2992,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2983,7 +3044,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3035,7 +3096,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3087,7 +3148,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3139,7 +3200,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3191,7 +3252,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3243,7 +3304,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3295,7 +3356,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3347,7 +3408,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3387,7 +3448,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -3395,7 +3455,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4317</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3447,7 +3507,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3499,7 +3559,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3551,7 +3611,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3603,7 +3663,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3655,7 +3715,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3707,7 +3767,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3759,7 +3819,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3811,7 +3871,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3863,7 +3923,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3915,7 +3975,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3967,7 +4027,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4019,7 +4079,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4071,7 +4131,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4123,7 +4183,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4175,7 +4235,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4227,7 +4287,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4279,7 +4339,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4331,7 +4391,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4383,7 +4443,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4435,7 +4495,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4487,7 +4547,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4539,7 +4599,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4591,7 +4651,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4643,7 +4703,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4695,7 +4755,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4747,7 +4807,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4799,7 +4859,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4851,7 +4911,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4903,7 +4963,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4955,7 +5015,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5007,7 +5067,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5059,7 +5119,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5111,7 +5171,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4577</t>
+          <t>4577</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5163,7 +5223,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4580</t>
+          <t>4580</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5215,7 +5275,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4583</t>
+          <t>4583</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5267,7 +5327,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5319,7 +5379,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5371,7 +5431,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5423,7 +5483,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4606</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5475,7 +5535,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5527,7 +5587,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5579,7 +5639,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5631,7 +5691,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5683,7 +5743,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5735,7 +5795,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5787,7 +5847,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5839,7 +5899,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5891,7 +5951,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4727</t>
+          <t>4727</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5943,7 +6003,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4731</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5974,6 +6034,559 @@
       <c r="J107" t="inlineStr">
         <is>
           <t>27</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13.99%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.96%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4577</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>47.79%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4580</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8.29%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4583</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7.79%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9.72%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.30%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>16.06%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>13.47%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>9.94%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4727</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4731</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6.15%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4417.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4417.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1180,6 +1179,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1227,6 +1227,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>23/06/2017</t>
@@ -1239,7 +1240,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1534,6 +1535,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -1546,7 +1548,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2933,6 +2935,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -3448,6 +3451,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -3460,7 +3464,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6034,559 +6038,6 @@
       <c r="J107" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>13.99%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4536</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.96%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4577</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>47.79%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4580</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8.29%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4583</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7.79%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>9.72%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4606</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.12%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4621</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.30%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>16.06%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>13.47%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>9.94%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4727</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4731</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6.15%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
